--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Programming/NodeJs/Api_NodeJS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00192BDF-40E0-D148-8018-E20DE118A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBEBAD-97C1-3A42-8FE9-71EA609C7967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{04C3CD52-D6F5-364E-9D89-3E5971CC4091}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>prompt</t>
   </si>
@@ -44,15 +44,9 @@
     <t>completion</t>
   </si>
   <si>
-    <t>Hola, gracias por usar el ChatBot de Davivienda</t>
-  </si>
-  <si>
     <t>Tarjeta de credito</t>
   </si>
   <si>
-    <t>Para solicitar una tarjeta de credito, por favor llamar al numero 234</t>
-  </si>
-  <si>
     <t>Hola Davivienda</t>
   </si>
   <si>
@@ -60,6 +54,48 @@
   </si>
   <si>
     <t>Tarjeta de crédito</t>
+  </si>
+  <si>
+    <t>Davivienda</t>
+  </si>
+  <si>
+    <t>Me podrias decir por cual empresa fuiste desarrollada</t>
+  </si>
+  <si>
+    <t>Quien te creo?</t>
+  </si>
+  <si>
+    <t>Quien te ajusto?</t>
+  </si>
+  <si>
+    <t>Cual empresa te usa?</t>
+  </si>
+  <si>
+    <t>El banco para el cual estas desarrollada</t>
+  </si>
+  <si>
+    <t>Podrias decirme hola</t>
+  </si>
+  <si>
+    <t>Hola, gracias por usar el ChatBot de Davivienda &gt;</t>
+  </si>
+  <si>
+    <t>Hola, gracias por usar el ChatBot de Davivienda  &gt;</t>
+  </si>
+  <si>
+    <t>Para solicitar una tarjeta de credito, por favor llamar al numero 234  &gt;</t>
+  </si>
+  <si>
+    <t>Claro, por Creasistemas  &gt;</t>
+  </si>
+  <si>
+    <t>Creasistemas  &gt;</t>
+  </si>
+  <si>
+    <t>Davivienda &gt;</t>
+  </si>
+  <si>
+    <t>Claro, hola usuario de Creasistemas es un placer ayudarte &gt;</t>
   </si>
 </sst>
 </file>
@@ -425,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E6315-735F-4B4D-92B4-5216407EA553}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,34 +483,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
